--- a/biology/Médecine/Hôpitaux_de_Hohenlychen/Hôpitaux_de_Hohenlychen.xlsx
+++ b/biology/Médecine/Hôpitaux_de_Hohenlychen/Hôpitaux_de_Hohenlychen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pitaux_de_Hohenlychen</t>
+          <t>Hôpitaux_de_Hohenlychen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les hôpitaux de Hohenlychen (en allemand : Heilanstalten Hohenlychen) étaient un complexe de sanatoriums à Lychen dans l'actuel Land de Brandebourg, en Allemagne, qui exista de 1902 à 1945. Il est devenu durant le Troisième Reich un hôpital de la Waffen-SS sous la direction du médecin nazi Karl Gebhardt.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pitaux_de_Hohenlychen</t>
+          <t>Hôpitaux_de_Hohenlychen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1902, le médecin Gotthold Pannwitz (1861-1926), fondateur de la commission centrale allemande pour la lutte contre la tuberculose, fait construire un hôpital pédiatrique à la lisière des forêts près de la ville de Lychen au nord de Berlin. Le sanatorium est administré par la Croix-Rouge allemande et est agrandi en l'espace de quelques années. En 1911, l'impériatrice Augusta-Victoria effectue une visite à Hohenlychen. Durant la Première Guerre mondiale, le complexe est utilisé comme hôpital militaire, et en 1927, le Comité sanitaire de la Société des Nations s'y réunit.
 Karl Gebhardt y officie à partir du 1er novembre 1933 en tant que médecin-chef du sanatorium pour des patients atteints de tuberculose. Il y fonde ensuite une clinique orthopédique pour le traitement des blessures du sport et du travail, notamment au ménisque. Les hôpitaux sont un lieu prisé des dirigeants et fonctionnaires du parti nazi, notamment Hitler, Himmler et Hess, mais aussi des élites des pays alliés du Reich. Ainsi, le ministre du régime de Vichy Jean Bichelonne y meurt en décembre 1944.
